--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>247200</v>
+      </c>
+      <c r="E8" s="3">
         <v>242900</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>143900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>131900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>99600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>44700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E9" s="3">
         <v>83300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E10" s="3">
         <v>159600</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>102400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>91700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>39400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,28 +931,31 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E17" s="3">
         <v>132900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-15400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>51600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>84300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E18" s="3">
         <v>110000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>51200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>47600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,86 +1042,93 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4500</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E21" s="3">
         <v>115900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>55500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>36000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2700</v>
       </c>
       <c r="J22" s="3">
         <v>2700</v>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E23" s="3">
         <v>109300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E26" s="3">
         <v>108400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>46400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>47000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>44400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4500</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>47000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>44400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>47000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>44400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1619,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E41" s="3">
         <v>156900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,26 +1681,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>669900</v>
+      </c>
+      <c r="E43" s="3">
         <v>518900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>369300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>495600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>426500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,26 +1809,29 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E47" s="3">
         <v>57900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>50400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>53400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>49600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,26 +1873,29 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E49" s="3">
         <v>14000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,26 +1969,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E52" s="3">
         <v>47200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2033,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>994800</v>
+      </c>
+      <c r="E54" s="3">
         <v>817700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>549400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>680800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>631500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,26 +2095,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E57" s="3">
         <v>29300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,26 +2157,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>418700</v>
+      </c>
+      <c r="E59" s="3">
         <v>350400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>213000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>264500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>238900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2053,8 +2189,11 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,17 +2233,17 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>143000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>143100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>143300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2122,15 +2267,15 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2381,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>848600</v>
+      </c>
+      <c r="E66" s="3">
         <v>698200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>414200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>464600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>444900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,17 +2555,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2683,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>146200</v>
+      </c>
+      <c r="E76" s="3">
         <v>119600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>216200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>186600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>47000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>44400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2647,25 +2845,28 @@
         <v>1400</v>
       </c>
       <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E89" s="3">
         <v>53900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
         <v>26400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>1300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E100" s="3">
         <v>19400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21800</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>-10500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3134,53 +3382,59 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E102" s="3">
         <v>69100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
         <v>17200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>247200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>242900</v>
+        <v>311000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>143900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>71200</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>131900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>99600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>44700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>83900</v>
+        <v>110900</v>
       </c>
       <c r="E9" s="3">
-        <v>83300</v>
+        <v>132800</v>
       </c>
       <c r="F9" s="3">
-        <v>2900</v>
+        <v>74400</v>
       </c>
       <c r="G9" s="3">
-        <v>41500</v>
+        <v>79300</v>
       </c>
       <c r="H9" s="3">
-        <v>10400</v>
+        <v>3800</v>
       </c>
       <c r="I9" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
         <v>40200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>24500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>163300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>159600</v>
+        <v>200100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>102400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>60800</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>91700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>75100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>39400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,40 +962,52 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="3">
-        <v>800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>205100</v>
+      </c>
+      <c r="F17" s="3">
         <v>136400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>132900</v>
       </c>
-      <c r="F17" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>92700</v>
-      </c>
       <c r="H17" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>91700</v>
+      </c>
+      <c r="J17" s="3">
         <v>51600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>84300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>67000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>41200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>110800</v>
-      </c>
-      <c r="E18" s="3">
-        <v>110000</v>
+        <v>137300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
-        <v>51200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>19600</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>47600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>32600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,54 +1109,62 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4500</v>
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>118400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>115900</v>
+        <v>142100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>55500</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1098,17 +1172,23 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>36000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,95 +1196,113 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2500</v>
-      </c>
       <c r="H22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2700</v>
       </c>
       <c r="L22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>162900</v>
+      </c>
+      <c r="F23" s="3">
         <v>116900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>109300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-51200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>51500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>18200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>47400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>31600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F24" s="3">
         <v>9500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>126500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>151200</v>
+      </c>
+      <c r="F26" s="3">
         <v>107400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>108400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-52400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>50200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>17200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>46400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>31000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F27" s="3">
         <v>25600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>47000</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="J27" s="3">
         <v>12100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>44400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>28500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-4500</v>
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F33" s="3">
         <v>25600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>47000</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="J33" s="3">
         <v>12100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>44400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>28500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F35" s="3">
         <v>25600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>47000</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="J35" s="3">
         <v>12100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>44400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>28500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>179900</v>
+      </c>
+      <c r="F41" s="3">
         <v>185000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>156900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>90700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>89900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>116100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1864,52 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1121500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>936100</v>
+      </c>
+      <c r="F43" s="3">
         <v>669900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>518900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>369300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>495600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>426500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1978,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,63 +2016,75 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F47" s="3">
         <v>63400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>57900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>50400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>53400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>49600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>64700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1876,40 +2092,52 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F49" s="3">
         <v>13100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>14000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>14800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>15600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>16600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2206,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>93400</v>
+      </c>
+      <c r="F52" s="3">
         <v>39600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>47200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1622800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1320800</v>
+      </c>
+      <c r="F54" s="3">
         <v>994800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>817700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>549400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>680800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>631500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2356,48 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F57" s="3">
         <v>28400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>29300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>25400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>36000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>40900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2428,52 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>815600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>613400</v>
+      </c>
+      <c r="F59" s="3">
         <v>418700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>350400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>213000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>264500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>238900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,8 +2504,14 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2236,28 +2522,34 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>143000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>143100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>143300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2270,26 +2562,32 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1317800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1071400</v>
+      </c>
+      <c r="F66" s="3">
         <v>848600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>698200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>414200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>464600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>444900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2900,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F72" s="3">
         <v>24800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2590,8 +2938,14 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>249400</v>
+      </c>
+      <c r="F76" s="3">
         <v>146200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>119600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>135200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>216200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>186600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>37800</v>
+      </c>
+      <c r="F81" s="3">
         <v>25600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>47000</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="J81" s="3">
         <v>12100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>44400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>28500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3229,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="3">
         <v>1400</v>
       </c>
       <c r="G83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F89" s="3">
         <v>37400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>53900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>26400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3827,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>19400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-26600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-21800</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>-10500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F102" s="3">
         <v>29200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>69100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-26200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>17200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>284200</v>
+      </c>
+      <c r="E8" s="3">
         <v>311000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>243600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -750,75 +754,81 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>131900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E9" s="3">
         <v>110900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>132800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74400</v>
       </c>
-      <c r="G9" s="3">
-        <v>79300</v>
-      </c>
       <c r="H9" s="3">
+        <v>83300</v>
+      </c>
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E10" s="3">
         <v>200100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>160300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -826,20 +836,23 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>91700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,46 +988,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10300</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3">
         <v>12700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,63 +1045,67 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>173400</v>
+      </c>
+      <c r="E17" s="3">
         <v>173700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>205100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>136400</v>
       </c>
-      <c r="G17" s="3">
-        <v>132900</v>
-      </c>
       <c r="H17" s="3">
+        <v>133100</v>
+      </c>
+      <c r="I17" s="3">
         <v>-15100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>91700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>51600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>84300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E18" s="3">
         <v>137300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+      <c r="H18" s="3">
+        <v>110500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1083,20 +1113,23 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>47600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,25 +1144,26 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>4000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1137,37 +1171,40 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E21" s="3">
         <v>142100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>115900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1178,22 +1215,25 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>36000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1202,22 +1242,22 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>5300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4100</v>
       </c>
       <c r="I22" s="3">
         <v>4100</v>
       </c>
       <c r="J22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2700</v>
       </c>
       <c r="M22" s="3">
         <v>2700</v>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E23" s="3">
         <v>140900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>162900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>109300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-51200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>51500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E24" s="3">
         <v>14400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E26" s="3">
         <v>126500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>151200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>107400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>108400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-52400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>46400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E27" s="3">
         <v>41700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-84900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,25 +1634,28 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>-4000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1593,58 +1663,64 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E33" s="3">
         <v>41700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-84900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E35" s="3">
         <v>41700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-84900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +1880,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E41" s="3">
         <v>218600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>179900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>185000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>156900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>90700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>116100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,35 +1960,38 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2469100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1121500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>936100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>669900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>518900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>369300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>495600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>426500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,35 +2124,38 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E47" s="3">
         <v>82900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>74400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>63400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>57900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>50400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>53400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>49600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2060,17 +2165,20 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E48" s="3">
         <v>64700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2086,8 +2194,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2098,35 +2206,38 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1003100</v>
+      </c>
+      <c r="E49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2329,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>98500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>93400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>47200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2411,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3831500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1622800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1320800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>994800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>817700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>549400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>680800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>631500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,35 +2488,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E57" s="3">
         <v>24800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,35 +2568,38 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1917900</v>
+      </c>
+      <c r="E59" s="3">
         <v>815600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>613400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>418700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>350400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>213000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>264500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>238900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2472,8 +2609,11 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,13 +2650,16 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>112600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2528,17 +2671,17 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>143000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>143100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2568,15 +2714,15 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +2855,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3147900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1317800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1071400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>848600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>698200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>414200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>464600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>444900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,26 +3077,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E72" s="3">
         <v>99100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>60400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3241,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>683600</v>
+      </c>
+      <c r="E76" s="3">
         <v>304900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>249400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>146200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>119600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>135200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>186600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E81" s="3">
         <v>41700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-84900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,19 +3429,20 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1400</v>
       </c>
       <c r="G83" s="3">
         <v>1400</v>
@@ -3252,25 +3451,28 @@
         <v>1400</v>
       </c>
       <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E89" s="3">
         <v>75100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>37400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>53900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>26400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-184300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>1300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>19400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-10500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E102" s="3">
         <v>38700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>69100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>17200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>412300</v>
+      </c>
+      <c r="E8" s="3">
         <v>284200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>311000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>360400</v>
       </c>
       <c r="H8" s="3">
+        <v>249500</v>
+      </c>
+      <c r="I8" s="3">
         <v>243600</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>131900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E9" s="3">
         <v>101000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>110900</v>
       </c>
-      <c r="F9" s="3">
-        <v>132800</v>
-      </c>
       <c r="G9" s="3">
-        <v>74400</v>
+        <v>144600</v>
       </c>
       <c r="H9" s="3">
+        <v>83900</v>
+      </c>
+      <c r="I9" s="3">
         <v>83300</v>
       </c>
-      <c r="I9" s="3">
-        <v>3800</v>
-      </c>
       <c r="J9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K9" s="3">
         <v>40100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>309900</v>
+      </c>
+      <c r="E10" s="3">
         <v>183200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>215800</v>
       </c>
       <c r="H10" s="3">
+        <v>165600</v>
+      </c>
+      <c r="I10" s="3">
         <v>160300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>91700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,22 +1010,25 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
-        <v>13200</v>
-      </c>
       <c r="G15" s="3">
-        <v>11800</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
@@ -1015,25 +1037,28 @@
         <v>800</v>
       </c>
       <c r="J15" s="3">
+        <v>800</v>
+      </c>
+      <c r="K15" s="3">
         <v>12700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>292700</v>
+      </c>
+      <c r="E17" s="3">
         <v>173400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>173700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>205100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>136400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>133100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-15100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>91700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>67000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E18" s="3">
         <v>110800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>137300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="G18" s="3">
+        <v>155300</v>
       </c>
       <c r="H18" s="3">
+        <v>113100</v>
+      </c>
+      <c r="I18" s="3">
         <v>110500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>47600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,70 +1177,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>7600</v>
       </c>
       <c r="H20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>154300</v>
+      </c>
+      <c r="E21" s="3">
         <v>116300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>142100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>164200</v>
       </c>
       <c r="H21" s="3">
+        <v>118400</v>
+      </c>
+      <c r="I21" s="3">
         <v>115900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1218,26 +1254,29 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>36000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1245,22 +1284,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>5300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4100</v>
       </c>
       <c r="J22" s="3">
         <v>4100</v>
       </c>
       <c r="K22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2700</v>
       </c>
       <c r="N22" s="3">
         <v>2700</v>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E23" s="3">
         <v>113700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>140900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>162900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>116900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>109300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-51200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E26" s="3">
         <v>127900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>126500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>151200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>107400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>108400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>50200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E27" s="3">
         <v>62100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-84900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>-7600</v>
       </c>
       <c r="H32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E33" s="3">
         <v>62100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-84900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E35" s="3">
         <v>62100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-84900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,38 +1966,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E41" s="3">
         <v>175000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>179900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>185000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>156900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>90700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>89900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,38 +2052,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2702700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2469100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1121500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>936100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>669900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>518900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>369300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>495600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>426500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,38 +2228,41 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E47" s="3">
         <v>90300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>82900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>74400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>63400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>57900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>50400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>53400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>49600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2168,20 +2272,23 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E48" s="3">
         <v>65500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64700</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2197,8 +2304,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2209,38 +2316,41 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>992400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1003100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,38 +2448,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>98500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>93400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>47200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2536,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4036600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3831500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1622800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1320800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>994800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>817700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>549400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>680800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>631500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,38 +2618,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E57" s="3">
         <v>48900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2530,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,38 +2704,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2095800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1917900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>815600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>613400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>418700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>350400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>213000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>264500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>238900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2612,8 +2748,11 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,17 +2792,20 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E61" s="3">
         <v>112600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2674,17 +2816,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>143000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>143300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2717,15 +2862,15 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3012,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3260900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3147900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1317800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1071400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>848600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>698200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>414200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>464600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>444900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>197200</v>
+      </c>
+      <c r="E72" s="3">
         <v>158100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>99100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,38 +3426,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>775700</v>
+      </c>
+      <c r="E76" s="3">
         <v>683600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>304900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>249400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>146200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>119600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>135200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>216200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>186600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E81" s="3">
         <v>62100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-84900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,22 +3627,23 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1400</v>
       </c>
       <c r="H83" s="3">
         <v>1400</v>
@@ -3454,25 +3652,28 @@
         <v>1400</v>
       </c>
       <c r="J83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E89" s="3">
         <v>59800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>75100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>53900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>26400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-184300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>1300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,13 +4147,14 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-9100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="E100" s="3">
         <v>77600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>19400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-21800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-10500</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>38700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>17200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>349500</v>
+      </c>
+      <c r="F8" s="3">
         <v>412300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>284200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>311000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>360400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>249500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>243600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>131900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>99600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>44700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>89800</v>
+      </c>
+      <c r="F9" s="3">
         <v>102400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>101000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>110900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>144600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>83900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>83300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>40100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>40200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>24500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>259700</v>
+      </c>
+      <c r="F10" s="3">
         <v>309900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>183200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>215800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>165600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>160300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>91700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>75100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>39400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,25 +1053,31 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
@@ -1040,25 +1086,31 @@
         <v>800</v>
       </c>
       <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3">
         <v>12700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>273300</v>
+      </c>
+      <c r="F17" s="3">
         <v>292700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>173400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>173700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>205100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>136400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>133100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-15100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>91700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>51600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>84300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>67000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>41200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F18" s="3">
         <v>119600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>110800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>137300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>155300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>113100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>110500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>47600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>32600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1244,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F20" s="3">
         <v>23100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F21" s="3">
         <v>154300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>116300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>142100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>164200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>118400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>115900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>36000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2700</v>
       </c>
       <c r="P22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>115800</v>
+      </c>
+      <c r="F23" s="3">
         <v>142100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>113700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>140900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>162900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>116900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>109300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-51200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>51500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>18200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>47400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>31600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F24" s="3">
         <v>15800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-14100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>14400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>11700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>9500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>103600</v>
+      </c>
+      <c r="F26" s="3">
         <v>126300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>127900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>126500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>151200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>107400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>108400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-52400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>50200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>46400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>31000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F27" s="3">
         <v>48300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>62100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>41700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>37800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>25600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-84900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>12100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>44400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>28500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-23100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F33" s="3">
         <v>48300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>62100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>41700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>37800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>25600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-84900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>12100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>44400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>28500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F35" s="3">
         <v>48300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>62100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>41700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>37800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>25600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-84900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>12100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>44400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>28500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>116400</v>
+      </c>
+      <c r="F41" s="3">
         <v>135900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>175000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>218600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>179900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>185000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>156900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>90700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>89900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>116100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2235,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2583900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2868600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2702700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2469100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1121500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>936100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>669900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>518900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>369300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>495600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>426500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2385,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,70 +2435,82 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>107000</v>
+      </c>
+      <c r="F47" s="3">
         <v>98800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>90300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>82900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>74400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>63400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>57900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>50400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>53400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>49600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F48" s="3">
         <v>63300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>65500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>64700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2307,11 +2523,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,52 +2535,64 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>967800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>978700</v>
+      </c>
+      <c r="F49" s="3">
         <v>992400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1003100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>16600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F52" s="3">
         <v>20000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>98500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>93400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>39600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>47200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3906200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4188100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4036600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3831500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1622800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1320800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>994800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>817700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>549400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>680800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>631500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>61500</v>
+      </c>
+      <c r="F57" s="3">
         <v>41500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>48900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>24800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>33800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>28400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>29300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>25400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>36000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>40900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2975,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2023600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2220400</v>
+      </c>
+      <c r="F59" s="3">
         <v>2095800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1917900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>815600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>613400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>418700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>350400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>213000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>264500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>238900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,23 +3075,29 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>62900</v>
+      </c>
+      <c r="F61" s="3">
         <v>62800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>112600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2819,72 +3105,84 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>143000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>143100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>143300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3106400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3370500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3260900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3147900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1317800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1071400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>848600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>698200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>414200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>464600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>444900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3595,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>205900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>229600</v>
+      </c>
+      <c r="F72" s="3">
         <v>197200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>158100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>99100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>60400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>24800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>799800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>817600</v>
+      </c>
+      <c r="F76" s="3">
         <v>775700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>683600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>304900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>249400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>146200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>119600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>135200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>216200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>186600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>41800</v>
+      </c>
+      <c r="F81" s="3">
         <v>48300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>62100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>41700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>37800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>25600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-84900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>12100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>44400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>28500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E83" s="3">
         <v>11700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1400</v>
       </c>
       <c r="J83" s="3">
         <v>1400</v>
       </c>
       <c r="K83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>1700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F89" s="3">
         <v>47100</v>
       </c>
-      <c r="E89" s="3">
-        <v>59800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>75100</v>
-      </c>
       <c r="G89" s="3">
+        <v>59200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>75700</v>
+      </c>
+      <c r="I89" s="3">
         <v>29000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>37400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>53900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>28900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>26400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4405,49 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-184300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>1300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,22 +4614,24 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-9100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-74200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>77600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-30500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-32800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>19400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-26600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-21800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>-10500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
         <v>400</v>
       </c>
       <c r="F101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>400</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-46600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>38700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>29200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>69100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-26200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>17200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>349500</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
+        <v>366500</v>
+      </c>
+      <c r="G8" s="3">
         <v>412300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>284200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>311000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>360400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>249500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>243600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>131900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>99600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E9" s="3">
         <v>41700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>89800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>102400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>101000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>110900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>144600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>83900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>24500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>259700</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
+        <v>276700</v>
+      </c>
+      <c r="G10" s="3">
         <v>309900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>183200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>215800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>165600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>160300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>91700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,19 +1091,19 @@
         <v>10900</v>
       </c>
       <c r="E15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F15" s="3">
         <v>11100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
@@ -1092,25 +1115,28 @@
         <v>800</v>
       </c>
       <c r="M15" s="3">
+        <v>800</v>
+      </c>
+      <c r="N15" s="3">
         <v>12700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E17" s="3">
         <v>-68400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>273300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>292700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>173400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>173700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>205100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>136400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-15100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>91700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>51600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>84300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>76200</v>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3">
+        <v>93200</v>
+      </c>
+      <c r="G18" s="3">
         <v>119600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>110800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>137300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>155300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>113100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>110500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>47600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,88 +1279,92 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>40100</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>23100</v>
       </c>
       <c r="G20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>128000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>154300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>116300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>142100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>164200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>118400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>115900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1337,35 +1374,38 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>36000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1373,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>5300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>4100</v>
       </c>
       <c r="M22" s="3">
         <v>4100</v>
       </c>
       <c r="N22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2700</v>
       </c>
       <c r="Q22" s="3">
         <v>2700</v>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>115800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>142100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>113700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>140900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>162900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>116900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>109300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-51200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-14100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>103600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>126300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>127900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>126500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>151200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>107400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>108400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-84900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>-40100</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>-23100</v>
       </c>
       <c r="G32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-84900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-84900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,47 +2227,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E41" s="3">
         <v>106400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>116400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>135900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>175000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>179900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>185000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>156900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>90700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>89900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>116100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,47 +2331,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2228300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2583900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2868600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2702700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2469100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1121500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>936100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>669900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>518900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>369300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>495600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>426500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,47 +2543,50 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E47" s="3">
         <v>108100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>107000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>98800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>90300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>82900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>74400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>63400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>57900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>49600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2491,29 +2596,32 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E48" s="3">
         <v>72100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +2637,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2541,47 +2649,50 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>956900</v>
+      </c>
+      <c r="E49" s="3">
         <v>967800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>978700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>992400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1003100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,47 +2808,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E52" s="3">
         <v>32500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>98500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>93400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>39600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,47 +2914,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3575600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3906200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4188100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4036600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3831500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1622800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1320800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>994800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>817700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>549400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>680800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>631500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,47 +3011,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E57" s="3">
         <v>55400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,47 +3115,50 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1787000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2023600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2220400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2095800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1917900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>815600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>613400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>418700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>350400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>213000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>264500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>238900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,26 +3221,29 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E61" s="3">
         <v>63000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>62900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>62800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>112600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3111,17 +3254,17 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>143000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>143100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>143300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3157,21 +3303,21 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,47 +3486,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2814400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3106400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3370500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3260900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3147900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1317800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1071400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>848600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>698200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>414200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>464600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>444900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3772,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E72" s="3">
         <v>205900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>229600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>197200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>158100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>99100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>24800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,47 +3984,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>761200</v>
+      </c>
+      <c r="E76" s="3">
         <v>799800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>817600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>775700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>683600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>304900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>249400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>146200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>119600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>135200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>216200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>186600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-84900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,31 +4224,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E83" s="3">
         <v>11500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>11700</v>
       </c>
       <c r="F83" s="3">
         <v>11700</v>
       </c>
       <c r="G83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -4059,25 +4258,28 @@
         <v>1400</v>
       </c>
       <c r="M83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E89" s="3">
         <v>57500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32300</v>
       </c>
-      <c r="F89" s="3">
-        <v>47100</v>
-      </c>
       <c r="G89" s="3">
-        <v>59200</v>
+        <v>46500</v>
       </c>
       <c r="H89" s="3">
+        <v>59800</v>
+      </c>
+      <c r="I89" s="3">
         <v>75700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>37400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>26400</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-184300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>1300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,26 +4849,27 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-9100</v>
       </c>
       <c r="F96" s="3">
         <v>-9100</v>
       </c>
       <c r="G96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-60700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-43400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-74200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>77600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>29200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>69100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>17200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,103 +757,109 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>366500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>412300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>284200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>311000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>360400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>249500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>243600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>131900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>99600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E9" s="3">
         <v>13600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>89800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>101000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>110900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>144600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>83300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,50 +869,53 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>276700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>309900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>183200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>215800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>165600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>160300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>91700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,19 +1116,19 @@
         <v>10900</v>
       </c>
       <c r="F15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G15" s="3">
         <v>11100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
@@ -1118,25 +1140,28 @@
         <v>800</v>
       </c>
       <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="3">
         <v>12700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>-104200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-68400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>273300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>292700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>173400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>173700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>205100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>136400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>133100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-15100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>51600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>84300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>41200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,50 +1246,53 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>93200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>119600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>110800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>137300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>155300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>110500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>47600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,50 +1324,53 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
-        <v>23100</v>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
         <v>23100</v>
       </c>
       <c r="H20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,30 +1380,30 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>128000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>154300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>116300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>142100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>164200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>118400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>115900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1377,38 +1413,41 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>36000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1416,22 +1455,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>5300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4100</v>
       </c>
       <c r="N22" s="3">
         <v>4100</v>
       </c>
       <c r="O22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2700</v>
       </c>
       <c r="R22" s="3">
         <v>2700</v>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-74500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>115800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>142100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>113700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>140900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>162900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>116900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>109300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-51200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>103600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>126300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>127900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>126500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>151200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>108400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-84900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,103 +1996,109 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
-        <v>-23100</v>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>-23100</v>
       </c>
       <c r="H32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-84900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-84900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E41" s="3">
         <v>143600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>116400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>135900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>175000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>179900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>185000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>156900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>90700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>89900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2281,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,50 +2423,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2093800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2228300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2583900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2868600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2702700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2469100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1121500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>936100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>669900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>518900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>369300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>495600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>426500</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,50 +2647,53 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E47" s="3">
         <v>107000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>108100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>107000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>98800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>90300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>82900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>74400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>57900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>49600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2599,32 +2703,35 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>104800</v>
+      </c>
+      <c r="E48" s="3">
         <v>62800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>65500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2640,8 +2747,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2652,50 +2759,53 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>946100</v>
+      </c>
+      <c r="E49" s="3">
         <v>956900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>967800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>978700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>992400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1003100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E52" s="3">
         <v>40400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>98500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>93400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3503100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3575600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3906200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4188100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4036600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3831500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1622800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1320800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>994800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>817700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>549400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>680800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>631500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E57" s="3">
         <v>63600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,50 +3251,53 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1725400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1787000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2023600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2220400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2095800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1917900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>815600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>613400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>418700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>350400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>213000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>264500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>238900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,29 +3363,32 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E61" s="3">
         <v>63100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>63000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>62900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>62800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>112600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3257,17 +3399,17 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>143000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>143100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>143300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3306,21 +3451,21 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2751400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2814400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3106400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3370500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3260900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3147900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1317800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1071400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>848600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>698200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>414200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>464600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>444900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E72" s="3">
         <v>164000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>205900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>229600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>197200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>158100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>99100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>24800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>751700</v>
+      </c>
+      <c r="E76" s="3">
         <v>761200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>799800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>817600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>775700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>683600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>304900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>249400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>146200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>119600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>135200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>216200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>186600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-84900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,34 +4422,35 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E83" s="3">
         <v>11700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>11700</v>
       </c>
       <c r="G83" s="3">
         <v>11700</v>
       </c>
       <c r="H83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1400</v>
       </c>
       <c r="L83" s="3">
         <v>1400</v>
@@ -4261,25 +4459,28 @@
         <v>1400</v>
       </c>
       <c r="N83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>88200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>75700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>26400</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-184300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>1300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,29 +5082,30 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-9100</v>
       </c>
       <c r="G96" s="3">
         <v>-9100</v>
       </c>
       <c r="H96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-42100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-60700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-43400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-74200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>77600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-10500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>37200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-46600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>69100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>17200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>173100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>366500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>412300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>284200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>311000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>360400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>249500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>243600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>131900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>99600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>44700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F9" s="3">
         <v>11700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>41700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>89800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>102400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>101000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>110900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>144600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>83900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>83300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>40100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>40200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>24500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>160300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>276700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>309900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>183200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>215800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>165600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>160300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>91700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>75100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>39400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1082,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-2700</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,13 +1144,19 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="E15" s="3">
         <v>10900</v>
@@ -1119,22 +1165,22 @@
         <v>10900</v>
       </c>
       <c r="G15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I15" s="3">
         <v>11100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>800</v>
       </c>
       <c r="M15" s="3">
         <v>800</v>
@@ -1143,25 +1189,31 @@
         <v>800</v>
       </c>
       <c r="O15" s="3">
+        <v>800</v>
+      </c>
+      <c r="P15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="3">
         <v>12700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>12200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>1400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>1300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>121200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-104200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>-68400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>273300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>292700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>173400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>173700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>205100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>136400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>133100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-15100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>91700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>51600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>84300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>67000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>41200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>72900</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>93200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>119600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>110800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>137300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>155300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>113100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>110500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>47600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>32600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1379,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3700</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>23100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>23100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>81300</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>128000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>154300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>116300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>142100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>164200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>118400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>115900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>36000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2700</v>
       </c>
       <c r="T22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>67500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-74500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-20200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>115800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>142100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>113700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>140900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>162900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>116900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>109300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-51200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>51500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>18200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>47400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>31600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-7400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>15800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-14100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>9500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>56800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-67100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>103600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>126300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>127900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>126500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>151200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>107400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>108400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-52400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>50200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>17200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>46400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>31000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-29200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>41800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>48300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>62100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>41700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>37800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>25600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-84900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>12100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>44400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>28500</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3700</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-23100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-23100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-29200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>41800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>48300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>62100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>41700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>37800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>25600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-84900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>12100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>44400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>28500</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-29200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>41800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>48300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>62100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>41700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>37800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>25600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-84900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>12100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>44400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>28500</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>128600</v>
+      </c>
+      <c r="F41" s="3">
         <v>140100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>143600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>106400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>116400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>135900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>175000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>218600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>179900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>185000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>156900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>90700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>89900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>116100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2606,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2131800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2096600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2093800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2228300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2583900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2868600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2702700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2469100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1121500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>936100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>669900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>518900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>369300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>495600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>426500</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,94 +2854,106 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>145800</v>
+      </c>
+      <c r="F47" s="3">
         <v>123400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>107000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>108100</v>
       </c>
       <c r="G47" s="3">
         <v>107000</v>
       </c>
       <c r="H47" s="3">
+        <v>108100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>107000</v>
+      </c>
+      <c r="J47" s="3">
         <v>98800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>90300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>82900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>74400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>63400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>57900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>50400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>53400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>49600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>101100</v>
+      </c>
+      <c r="F48" s="3">
         <v>104800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>62800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>72100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>61100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>63300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>65500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>64700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2750,11 +2966,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,64 +2978,76 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>924500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>935200</v>
+      </c>
+      <c r="F49" s="3">
         <v>946100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>956900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>967800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>978700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>992400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1003100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>13100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>15600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F52" s="3">
         <v>50200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>40400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>32500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>28900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>98500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>93400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>39600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>47200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3530800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3497400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3503100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3575600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3906200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4188100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4036600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3831500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1622800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1320800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>994800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>817700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>549400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>680800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>631500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3402,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>67800</v>
+      </c>
+      <c r="F57" s="3">
         <v>64700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>63600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>55400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>61500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>41500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>48900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>24800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>33800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>28400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>29300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>25400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>36000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>40900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3522,76 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1670500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1655800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1725400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1787000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2023600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2220400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2095800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1917900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>815600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>613400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>418700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>350400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>213000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>264500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>238900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,35 +3646,41 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>98400</v>
+      </c>
+      <c r="F61" s="3">
         <v>83200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>63100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>63000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>62900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>62800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>112600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3402,28 +3688,34 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>143000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>143100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>143300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3454,32 +3746,38 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2764800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2725800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2751400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2814400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3106400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3370500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3260900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3147900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1317800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1071400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>848600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>698200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>414200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>464600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>444900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4290,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>160400</v>
+      </c>
+      <c r="F72" s="3">
         <v>144500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>164000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>205900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>229600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>197200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>158100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>99100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>60400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>24800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>771600</v>
+      </c>
+      <c r="F76" s="3">
         <v>751700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>761200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>799800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>817600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>775700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>683600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>304900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>249400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>146200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>119600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>135200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>216200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>186600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-29200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>41800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>48300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>62100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>41700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>37800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>25600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-84900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>12100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>44400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>28500</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4819,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E83" s="3">
         <v>12100</v>
       </c>
-      <c r="E83" s="3">
-        <v>11700</v>
-      </c>
       <c r="F83" s="3">
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="G83" s="3">
         <v>11700</v>
       </c>
       <c r="H83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I83" s="3">
         <v>11700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1400</v>
       </c>
       <c r="N83" s="3">
         <v>1400</v>
       </c>
       <c r="O83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>1700</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>88200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>57500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>32300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>46500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>59800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>75700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>29000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>37400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>53900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>28900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>26400</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-500</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-400</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
       </c>
       <c r="O91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-9700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-184300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2200</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>1300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,35 +5549,37 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-12900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-12300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-12200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-9100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-9100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-5600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-42100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-60700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-43400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-74200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>77600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-30500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-32800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>19400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-26600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-21800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>-10500</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-600</v>
       </c>
       <c r="I101" s="3">
         <v>400</v>
       </c>
       <c r="J101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>400</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>37200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-39100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-46600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>38700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>29200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>69100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-26200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>17200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>STEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E8" s="3">
         <v>178600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>173100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>366500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>412300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>284200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>311000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>360400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>249500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>243600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>131900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>99600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>44700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>9100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>89800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>102400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>101000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>110900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>144600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>83900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>83300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>24500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E10" s="3">
         <v>169500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>160300</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
         <v>276700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>309900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>183200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>215800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>165600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>160300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>91700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>75100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>60200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,34 +1105,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1182,7 @@
         <v>10700</v>
       </c>
       <c r="E15" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
         <v>10900</v>
@@ -1171,19 +1194,19 @@
         <v>10900</v>
       </c>
       <c r="I15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J15" s="3">
         <v>11100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>800</v>
       </c>
       <c r="N15" s="3">
         <v>800</v>
@@ -1195,25 +1218,28 @@
         <v>800</v>
       </c>
       <c r="Q15" s="3">
+        <v>800</v>
+      </c>
+      <c r="R15" s="3">
         <v>12700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E17" s="3">
         <v>121200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-104200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-68400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>273300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>292700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>173400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>173700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>205100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>136400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>133100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>91700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>51600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>84300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>41200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>51600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E18" s="3">
         <v>57400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>72900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>93200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>110800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>137300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>155300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>110500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>47600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,112 +1414,116 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
-        <v>23100</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>23100</v>
       </c>
       <c r="K20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E21" s="3">
         <v>72000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>128000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>154300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>116300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>142100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>164200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>118400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>115900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1496,47 +1533,50 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>36000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1544,22 +1584,22 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>5300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4100</v>
       </c>
       <c r="Q22" s="3">
         <v>4100</v>
       </c>
       <c r="R22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2700</v>
       </c>
       <c r="U22" s="3">
         <v>2700</v>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E23" s="3">
         <v>58000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>67500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-74500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>115800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>142100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>140900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>162900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>116900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>109300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>31600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E24" s="3">
         <v>8600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-14100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E26" s="3">
         <v>49400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-67100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>103600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>126300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>127900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>126500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>151200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>108400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E27" s="3">
         <v>21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>37800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-84900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>44400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28500</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
-        <v>-23100</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>-23100</v>
       </c>
       <c r="K32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E33" s="3">
         <v>21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>37800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-84900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>44400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>28500</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E35" s="3">
         <v>21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>37800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-84900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>44400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>28500</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,59 +2574,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E41" s="3">
         <v>127200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>128600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>140100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>143600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>135900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>175000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>179900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>185000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>156900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>90700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>89900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>116100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,59 +2702,62 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2128500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2131800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2096600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2093800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2228300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2583900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2868600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2702700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2469100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1121500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>936100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>669900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>518900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>369300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>495600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>426500</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,59 +2962,62 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E47" s="3">
         <v>161300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>145800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>123400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>107000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>108100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>107000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>98800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>74400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>57900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>53400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>49600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2922,41 +3027,44 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>99800</v>
+      </c>
+      <c r="E48" s="3">
         <v>100500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>101100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>104800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>61100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2972,8 +3080,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2984,59 +3092,62 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>913900</v>
+      </c>
+      <c r="E49" s="3">
         <v>924500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>935200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>946100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>956900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>967800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>978700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>992400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1003100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,59 +3287,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E52" s="3">
         <v>39600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>45300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>40400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>93400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>47200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,59 +3417,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3608400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3530800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3497400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3503100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3575600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3906200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4188100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4036600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3831500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1622800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1320800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>994800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>817700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>549400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>680800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>631500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,59 +3534,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E57" s="3">
         <v>66300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,59 +3662,62 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1687600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1670500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1655800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1725400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1787000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2023600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2220400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2095800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1917900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>815600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>613400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>418700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>350400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>213000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>264500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>238900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,38 +3792,41 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E61" s="3">
         <v>98500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>98400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>83200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>63100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>63000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>62900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>62800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>112600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3694,17 +3837,17 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>143000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>143100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>143300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3752,21 +3898,21 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,59 +4117,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2813700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2764800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2725800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2751400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2814400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3106400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3370500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3260900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3147900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1317800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1071400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>848600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>698200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>414200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>464600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>444900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,50 +4467,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E72" s="3">
         <v>152600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>160400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>144500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>164000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>205900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>229600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>197200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>158100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>99100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>24800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,59 +4727,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>794700</v>
+      </c>
+      <c r="E76" s="3">
         <v>766000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>771600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>751700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>761200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>799800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>817600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>775700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>683600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>304900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>249400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>146200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>119600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>135200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>216200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>186600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E81" s="3">
         <v>21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>37800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-84900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>44400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>28500</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,34 +5029,34 @@
         <v>12000</v>
       </c>
       <c r="E83" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="F83" s="3">
         <v>12100</v>
       </c>
       <c r="G83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H83" s="3">
         <v>11700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11700</v>
       </c>
       <c r="J83" s="3">
         <v>11700</v>
       </c>
       <c r="K83" s="3">
+        <v>11700</v>
+      </c>
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1400</v>
       </c>
       <c r="O83" s="3">
         <v>1400</v>
@@ -4866,25 +5065,28 @@
         <v>1400</v>
       </c>
       <c r="Q83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>1700</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E89" s="3">
         <v>57600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>88200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>57500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>46500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>75700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>26400</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
       </c>
       <c r="O91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-184300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>1300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,38 +5784,39 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-9100</v>
       </c>
       <c r="J96" s="3">
         <v>-9100</v>
       </c>
       <c r="K96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-42100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-60700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-43400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-74200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>77600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>19400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>-10500</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-46600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>69100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>17200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
